--- a/data_year/zb/城市概况/城市公共交通.xlsx
+++ b/data_year/zb/城市概况/城市公共交通.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,605 +488,428 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4272897.6</v>
+        <v>6867496.9</v>
       </c>
       <c r="C2" t="n">
-        <v>281516</v>
+        <v>374876</v>
       </c>
       <c r="D2" t="n">
-        <v>4140076.7</v>
+        <v>6310719.7</v>
       </c>
       <c r="E2" t="n">
-        <v>279620</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>374876</v>
+      </c>
+      <c r="F2" t="n">
+        <v>488812</v>
+      </c>
       <c r="G2" t="n">
-        <v>903734</v>
+        <v>986000</v>
       </c>
       <c r="H2" t="n">
-        <v>132820.9</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>556777.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1471.3</v>
+      </c>
       <c r="J2" t="n">
-        <v>1896</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>8285</v>
+      </c>
+      <c r="K2" t="n">
+        <v>490283.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4836929.74</v>
+        <v>7439185</v>
       </c>
       <c r="C3" t="n">
-        <v>313296</v>
+        <v>412590</v>
       </c>
       <c r="D3" t="n">
-        <v>4671881.02</v>
+        <v>6725785</v>
       </c>
       <c r="E3" t="n">
-        <v>310932</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>402645</v>
+      </c>
+      <c r="F3" t="n">
+        <v>519554</v>
+      </c>
       <c r="G3" t="n">
-        <v>936973</v>
+        <v>1002306</v>
       </c>
       <c r="H3" t="n">
-        <v>165048.72</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>713400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1698.7</v>
+      </c>
       <c r="J3" t="n">
-        <v>2364</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>9945</v>
+      </c>
+      <c r="K3" t="n">
+        <v>521252.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4659247</v>
+        <v>7887914</v>
       </c>
       <c r="C4" t="n">
-        <v>315576</v>
+        <v>432021</v>
       </c>
       <c r="D4" t="n">
-        <v>4477648</v>
+        <v>7014989</v>
       </c>
       <c r="E4" t="n">
-        <v>312812</v>
+        <v>419410</v>
       </c>
       <c r="F4" t="n">
-        <v>125236</v>
+        <v>549736</v>
       </c>
       <c r="G4" t="n">
-        <v>928647</v>
+        <v>1026678</v>
       </c>
       <c r="H4" t="n">
-        <v>181599</v>
+        <v>872925</v>
       </c>
       <c r="I4" t="n">
-        <v>621</v>
+        <v>2057.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2764</v>
+        <v>12611</v>
       </c>
       <c r="K4" t="n">
-        <v>125857</v>
+        <v>551793.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5546439</v>
+        <v>8254548</v>
       </c>
       <c r="C5" t="n">
-        <v>347969</v>
+        <v>460970</v>
       </c>
       <c r="D5" t="n">
-        <v>5325857</v>
+        <v>7162676</v>
       </c>
       <c r="E5" t="n">
-        <v>344489</v>
+        <v>446604</v>
       </c>
       <c r="F5" t="n">
-        <v>140038</v>
+        <v>575173</v>
       </c>
       <c r="G5" t="n">
-        <v>959668</v>
+        <v>1053580</v>
       </c>
       <c r="H5" t="n">
-        <v>220582</v>
+        <v>1091872</v>
       </c>
       <c r="I5" t="n">
-        <v>763</v>
+        <v>2407.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3480</v>
+        <v>14366</v>
       </c>
       <c r="K5" t="n">
-        <v>140801</v>
+        <v>577580.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7029996</v>
+        <v>8495033</v>
       </c>
       <c r="C6" t="n">
-        <v>371822</v>
+        <v>476255</v>
       </c>
       <c r="D6" t="n">
-        <v>6692606</v>
+        <v>7228457</v>
       </c>
       <c r="E6" t="n">
-        <v>367292</v>
+        <v>458955</v>
       </c>
       <c r="F6" t="n">
-        <v>146514</v>
+        <v>617235</v>
       </c>
       <c r="G6" t="n">
-        <v>968811</v>
+        <v>1074386</v>
       </c>
       <c r="H6" t="n">
-        <v>337390</v>
+        <v>1266576</v>
       </c>
       <c r="I6" t="n">
-        <v>835</v>
+        <v>2816.1</v>
       </c>
       <c r="J6" t="n">
-        <v>4530</v>
+        <v>17300</v>
       </c>
       <c r="K6" t="n">
-        <v>147349</v>
+        <v>620051.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6767589</v>
+        <v>8454295</v>
       </c>
       <c r="C7" t="n">
-        <v>370640</v>
+        <v>482975</v>
       </c>
       <c r="D7" t="n">
-        <v>6401819</v>
+        <v>7054193</v>
       </c>
       <c r="E7" t="n">
-        <v>365161</v>
+        <v>482975</v>
       </c>
       <c r="F7" t="n">
-        <v>208250</v>
+        <v>666444</v>
       </c>
       <c r="G7" t="n">
-        <v>971579</v>
+        <v>1092083</v>
       </c>
       <c r="H7" t="n">
-        <v>365770</v>
+        <v>1400102</v>
       </c>
       <c r="I7" t="n">
-        <v>999</v>
+        <v>3195.4</v>
       </c>
       <c r="J7" t="n">
-        <v>5479</v>
+        <v>19941</v>
       </c>
       <c r="K7" t="n">
-        <v>209249</v>
+        <v>669639.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6867496.9</v>
+        <v>8441316</v>
       </c>
       <c r="C8" t="n">
-        <v>374876</v>
+        <v>538842</v>
       </c>
       <c r="D8" t="n">
-        <v>6310719.7</v>
+        <v>6826235</v>
       </c>
       <c r="E8" t="n">
-        <v>374876</v>
+        <v>515051</v>
       </c>
       <c r="F8" t="n">
-        <v>488812</v>
+        <v>725690</v>
       </c>
       <c r="G8" t="n">
-        <v>986000</v>
+        <v>1102563</v>
       </c>
       <c r="H8" t="n">
-        <v>556777.2</v>
+        <v>1615081</v>
       </c>
       <c r="I8" t="n">
-        <v>1471.3</v>
+        <v>3727.5</v>
       </c>
       <c r="J8" t="n">
-        <v>8285</v>
+        <v>23791</v>
       </c>
       <c r="K8" t="n">
-        <v>490283.3</v>
+        <v>729417.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7439185</v>
+        <v>8470688</v>
       </c>
       <c r="C9" t="n">
-        <v>412590</v>
+        <v>583437</v>
       </c>
       <c r="D9" t="n">
-        <v>6725785</v>
+        <v>6627688</v>
       </c>
       <c r="E9" t="n">
-        <v>402645</v>
+        <v>554820</v>
       </c>
       <c r="F9" t="n">
-        <v>519554</v>
+        <v>791365</v>
       </c>
       <c r="G9" t="n">
-        <v>1002306</v>
+        <v>1102823</v>
       </c>
       <c r="H9" t="n">
-        <v>713400</v>
+        <v>1843000</v>
       </c>
       <c r="I9" t="n">
-        <v>1698.7</v>
+        <v>4570.4</v>
       </c>
       <c r="J9" t="n">
-        <v>9945</v>
+        <v>28617</v>
       </c>
       <c r="K9" t="n">
-        <v>521252.7</v>
+        <v>795935.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7887914</v>
-      </c>
-      <c r="C10" t="n">
-        <v>432021</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>7014989</v>
+        <v>6356469</v>
       </c>
       <c r="E10" t="n">
-        <v>419410</v>
+        <v>565933</v>
       </c>
       <c r="F10" t="n">
-        <v>549736</v>
+        <v>876650</v>
       </c>
       <c r="G10" t="n">
-        <v>1026678</v>
+        <v>1097237</v>
       </c>
       <c r="H10" t="n">
-        <v>872925</v>
+        <v>2127659</v>
       </c>
       <c r="I10" t="n">
-        <v>2057.9</v>
+        <v>5295.1</v>
       </c>
       <c r="J10" t="n">
-        <v>12611</v>
-      </c>
-      <c r="K10" t="n">
-        <v>551793.9</v>
-      </c>
+        <v>34012</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8254548</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>460970</v>
+        <v>584026</v>
       </c>
       <c r="D11" t="n">
-        <v>7162676</v>
+        <v>6288266</v>
       </c>
       <c r="E11" t="n">
-        <v>446604</v>
+        <v>584026</v>
       </c>
       <c r="F11" t="n">
-        <v>575173</v>
+        <v>964919.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1053580</v>
+        <v>1102470</v>
       </c>
       <c r="H11" t="n">
-        <v>1091872</v>
+        <v>2387796</v>
       </c>
       <c r="I11" t="n">
-        <v>2407.9</v>
+        <v>6172.2</v>
       </c>
       <c r="J11" t="n">
-        <v>14366</v>
-      </c>
-      <c r="K11" t="n">
-        <v>577580.9</v>
-      </c>
+        <v>40998</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8495033</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>476255</v>
+        <v>589961</v>
       </c>
       <c r="D12" t="n">
-        <v>7228457</v>
+        <v>3951265</v>
       </c>
       <c r="E12" t="n">
-        <v>458955</v>
+        <v>589961</v>
       </c>
       <c r="F12" t="n">
-        <v>617235</v>
+        <v>1042348</v>
       </c>
       <c r="G12" t="n">
-        <v>1074386</v>
+        <v>1113153</v>
       </c>
       <c r="H12" t="n">
-        <v>1266576</v>
+        <v>1759044</v>
       </c>
       <c r="I12" t="n">
-        <v>2816.1</v>
+        <v>7354.7</v>
       </c>
       <c r="J12" t="n">
-        <v>17300</v>
-      </c>
-      <c r="K12" t="n">
-        <v>620051.1</v>
-      </c>
+        <v>49424</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8454295</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>482975</v>
+        <v>709443</v>
       </c>
       <c r="D13" t="n">
-        <v>7054193</v>
+        <v>4891569.9</v>
       </c>
       <c r="E13" t="n">
-        <v>482975</v>
+        <v>709443</v>
       </c>
       <c r="F13" t="n">
-        <v>666444</v>
+        <v>1593829.2</v>
       </c>
       <c r="G13" t="n">
-        <v>1092083</v>
+        <v>1391315</v>
       </c>
       <c r="H13" t="n">
-        <v>1400102</v>
+        <v>2372692</v>
       </c>
       <c r="I13" t="n">
-        <v>3195.4</v>
+        <v>8735.6</v>
       </c>
       <c r="J13" t="n">
-        <v>19941</v>
-      </c>
-      <c r="K13" t="n">
-        <v>669639.4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8441316</v>
-      </c>
-      <c r="C14" t="n">
-        <v>538842</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6826235</v>
-      </c>
-      <c r="E14" t="n">
-        <v>515051</v>
-      </c>
-      <c r="F14" t="n">
-        <v>725690</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1102563</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1615081</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3727.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23791</v>
-      </c>
-      <c r="K14" t="n">
-        <v>729417.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8470688</v>
-      </c>
-      <c r="C15" t="n">
-        <v>583437</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6627688</v>
-      </c>
-      <c r="E15" t="n">
-        <v>554820</v>
-      </c>
-      <c r="F15" t="n">
-        <v>791365</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1102823</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1843000</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4570.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>28617</v>
-      </c>
-      <c r="K15" t="n">
-        <v>795935.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>6356469</v>
-      </c>
-      <c r="E16" t="n">
-        <v>565933</v>
-      </c>
-      <c r="F16" t="n">
-        <v>876650</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1097237</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2127659</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5295.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>34012</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>584026</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6288266</v>
-      </c>
-      <c r="E17" t="n">
-        <v>584026</v>
-      </c>
-      <c r="F17" t="n">
-        <v>964919.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1102470</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2387796</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6172.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>40998</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>589961</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3951265</v>
-      </c>
-      <c r="E18" t="n">
-        <v>589961</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1042348</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1113153</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1759044</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7354.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>49424</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>57286</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
